--- a/Indicator_Definitions.xlsx
+++ b/Indicator_Definitions.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/CO3/C03/Reporting Tool/New Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_006DC1741EE07C744D2C435A219B9790C7D64161" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C27BC5-E600-43B7-850F-B158E6C49DF5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2CC165-5085-4A47-B982-FD19FF838304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,9 +106,6 @@
     <t>D5_ProMarket</t>
   </si>
   <si>
-    <t>D6_Protestant Ethic</t>
-  </si>
-  <si>
     <t>Agency</t>
   </si>
   <si>
@@ -771,6 +773,9 @@
   </si>
   <si>
     <t>Work is a duty towards society</t>
+  </si>
+  <si>
+    <t>D5_Protestant Ethic</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1146,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,16 +1179,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,16 +1213,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1242,16 +1247,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,16 +1264,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,16 +1281,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,16 +1298,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,16 +1315,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1327,13 +1332,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1344,13 +1349,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1361,16 +1366,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,16 +1383,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1395,16 +1400,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,16 +1417,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,16 +1434,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1446,16 +1451,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1463,16 +1468,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1480,16 +1485,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,16 +1502,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,101 +1519,101 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1620,632 +1625,632 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Indicator_Definitions.xlsx
+++ b/Indicator_Definitions.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/CO3/C03/Reporting Tool/New Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2CC165-5085-4A47-B982-FD19FF838304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_006DC1741EE07C744D2C435A219B9790C7D64161" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D0A866-62E4-448A-9022-A58B1D1AA119}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -106,6 +101,9 @@
     <t>D5_ProMarket</t>
   </si>
   <si>
+    <t>D6_Protestant Ethic</t>
+  </si>
+  <si>
     <t>Agency</t>
   </si>
   <si>
@@ -142,39 +140,18 @@
     <t>Values</t>
   </si>
   <si>
-    <t>F115–F117</t>
-  </si>
-  <si>
-    <t>E025–E029</t>
-  </si>
-  <si>
     <t>E023, E150</t>
   </si>
   <si>
-    <t>A065–A074</t>
-  </si>
-  <si>
     <t>G006</t>
   </si>
   <si>
-    <t>E069_01–E069_17 (Selected)</t>
-  </si>
-  <si>
     <t>E069_18</t>
   </si>
   <si>
-    <t>E114–E116</t>
-  </si>
-  <si>
     <t>E117</t>
   </si>
   <si>
-    <t>E154–E158</t>
-  </si>
-  <si>
-    <t>E159–E162</t>
-  </si>
-  <si>
     <t>A029, A030, A034</t>
   </si>
   <si>
@@ -199,15 +176,6 @@
     <t>A165</t>
   </si>
   <si>
-    <t>E120–E123</t>
-  </si>
-  <si>
-    <t>E035–E039</t>
-  </si>
-  <si>
-    <t>C036–C039</t>
-  </si>
-  <si>
     <t>A173</t>
   </si>
   <si>
@@ -775,7 +743,34 @@
     <t>Work is a duty towards society</t>
   </si>
   <si>
-    <t>D5_Protestant Ethic</t>
+    <t>F115, F116, F117</t>
+  </si>
+  <si>
+    <t>E025, e026, E027, E028,E029</t>
+  </si>
+  <si>
+    <t>A065, A066, A067, A068, A069, A070, A070, A071, A072, A073, A074</t>
+  </si>
+  <si>
+    <t>E069_01, E069_02, E069_04, E069_05, E069_06, E069_07, E069_08,  E069_17</t>
+  </si>
+  <si>
+    <t>E114, E115, E116</t>
+  </si>
+  <si>
+    <t>E154, E155, E157, E158</t>
+  </si>
+  <si>
+    <t>E159, E160, E161, E162</t>
+  </si>
+  <si>
+    <t>E120, E121, E122, E123</t>
+  </si>
+  <si>
+    <t>E035, E036, E037, E038, E039</t>
+  </si>
+  <si>
+    <t>C036, C037, C038, C039</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1141,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,16 +1174,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,16 +1191,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,16 +1208,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,16 +1225,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,16 +1242,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,16 +1259,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,16 +1276,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,16 +1293,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,16 +1310,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,13 +1327,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1349,13 +1344,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1366,16 +1361,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,16 +1378,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,16 +1395,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,16 +1412,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,16 +1429,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,16 +1446,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,16 +1463,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,16 +1480,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,16 +1497,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,101 +1514,101 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
         <v>249</v>
       </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1625,632 +1620,632 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Indicator_Definitions.xlsx
+++ b/Indicator_Definitions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/CO3/C03/Reporting Tool/New Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_006DC1741EE07C744D2C435A219B9790C7D64161" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D0A866-62E4-448A-9022-A58B1D1AA119}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E589C61-81D2-4CD6-8170-3E0E01AD327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,12 +167,6 @@
     <t>C002, A124_02</t>
   </si>
   <si>
-    <t>A124_05, 06, 10</t>
-  </si>
-  <si>
-    <t>A124_03, 08, 09</t>
-  </si>
-  <si>
     <t>A165</t>
   </si>
   <si>
@@ -746,9 +740,6 @@
     <t>F115, F116, F117</t>
   </si>
   <si>
-    <t>E025, e026, E027, E028,E029</t>
-  </si>
-  <si>
     <t>A065, A066, A067, A068, A069, A070, A070, A071, A072, A073, A074</t>
   </si>
   <si>
@@ -771,6 +762,15 @@
   </si>
   <si>
     <t>C036, C037, C038, C039</t>
+  </si>
+  <si>
+    <t>E025, E026, E027, E028,E029</t>
+  </si>
+  <si>
+    <t>A124_05, A124_06, A124_10</t>
+  </si>
+  <si>
+    <t>A124_03, A124_08, A124_09</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,13 +1177,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,13 +1194,13 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,10 +1214,10 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,13 +1228,13 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,10 +1248,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,13 +1262,13 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,13 +1296,13 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,10 +1316,10 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,10 +1330,10 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1347,10 +1347,10 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1367,10 +1367,10 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,10 +1384,10 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1435,10 +1435,10 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,13 +1449,13 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1466,13 +1466,13 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,13 +1500,13 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,13 +1517,13 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,13 +1534,13 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,13 +1551,13 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,13 +1568,13 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,13 +1585,13 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,10 +1602,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -1626,170 +1626,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,71 +1797,71 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,31 +1869,31 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,351 +1901,351 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Indicator_Definitions.xlsx
+++ b/Indicator_Definitions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E589C61-81D2-4CD6-8170-3E0E01AD327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB14069-BFFB-40AF-A64D-86FF31DB5100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
